--- a/deuChatbot/research_result/version_2(1500_300).xlsx
+++ b/deuChatbot/research_result/version_2(1500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20780,6 +20780,6717 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 실기종목, 배점, 준비물, 주제, 조건, 화지 크기 및 시험 시간을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽고 일관됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8171083051307099</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행되며, 각 분야는 기초디자인 또는 사고의 전환 중 하나를 선택하여 준비해야 합니다. 
+기본적으로 각 분야는 700점(70%)의 배점을 받으며, 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기시험에서는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정하게 됩니다. 예시로는 '잠자리와 저울' 또는 '콜라병과 계절' 등이 될 수 있습니다.
+주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 또한 색상 변경은 금지되어 있으며, 화지는 켄트지3절 크기로 사용합니다.
+시험 시간은 5시간이며, 준비물과 주제를 잘 고려하여 작품을 완성하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 배점 비율에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점 비율에 대한 정보가 없으므로, 이로 인해 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 어색할 수 있는 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 추가되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 감점이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율에 대한 언급이 추가되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장 연결이 어색할 수 있어 완벽한 이해에는 다소 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 정확하게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 대회 목록을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9150086599981222</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 종목별로 다르게 되어 있습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 정보를 참고하여 지원할 수 있는 대회를 선택하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제와 관련된 정보를 정확하게 포함하고 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제를 잘 반영하고 있지만, "시각디자인, 산업디자인, 공예디자인"이라는 추가 정보가 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 주제A와 주제B에 대한 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 반복이 있어 더 매끄럽게 개선될 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 설명이 명확합니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분 정확하지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7869704450182924</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 작성해야 합니다. 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+주제A와 주제B를 각각 1개씩 선택하여 연결된 주제를 작성해야 합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 출결 점수가 반영된다고 주장하고 있지만, 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서 출결 점수가 반영되지 않는다고 했으나, 생성된 응답에서는 반영된다고 하여 서로 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 학생부 교과 전형에 대한 정보를 제공하고 있습니다. 주제와 관련된 내용을 다루고 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 원문과의 내용 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 다소 비논리적으로 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 출결 점수가 반영된다고 주장하는 것은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성은 높고 유창성도 괜찮습니다. 그러나 전반적으로 사실과 일관성이 결여되어 있어 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과 의미적으로 상반된 내용을 담고 있어 의미적으로 부적절합니다. 원문에서의 주장을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6570027418542153</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 학생부교과 전형에서는 출결 점수가 반영됩니다. 출결 점수는 전형요소 반영비율(%)에서 12%를 차지하며, 이는 전체 평가 중 중요한 요소로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8877061702122857</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 인문사회과학대학의 국어국문학과 - 교직 모집단위에서 가군 일반학생 전형으로 17명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 모집 단위와 계열에 대한 정보도 추가적으로 제공하고 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용을 보완하고 있습니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 정보를 추가로 제공하고 있습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답이 우수하게 수행되고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6438169986387555</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이며, 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8291031121253111</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9432679787744037</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 있다고 주장하고 있으나, 이는 원문과 정반대의 내용입니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서 예술고 학생은 지원할 수 없다고 명시되어 있는데, 생성된 응답은 지원 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있습니다. 예술고 학생의 지원 가능성에 대한 질문에 대한 답변이므로 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 내용 불일치로 인해 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 논리적으로 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다릅니다. 원문에서 명시된 내용을 잘못 해석하고 있으며, 예술고 학생의 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 심각한 문제를 가지고 있어 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과 의미적으로 상충합니다. 원문에서의 의미를 왜곡하고 있어 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7198672610303026</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형에서 지원 가능합니다. 고교유형별 지원자격 항목에서 특수목적고의 예술고가 지원 가능한 대상으로 명시되어 있습니다. 따라서 예술고 학생도 해당 전형을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 거리가 268~271cm"라는 부분은 원본 텍스트에 명시된 "기록: 218~221 cm"와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. "남은 거리"라는 표현은 원본 텍스트에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다. 그러나 일부 잘못된 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 "여는 거리"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 잘못된 정보로 인해 논리적 일관성이 떨어집니다. "남은 거리"와 "여는 거리"의 구분이 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있어 정확성이 낮습니다. 특히 "남은 거리"에 대한 정보는 잘못된 것입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다. "남은 거리"라는 표현이 문맥에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8099908695988906</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>4등급에 해당하는 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 남은 거리가 268~271cm이고, 여는 거리는 218~221cm입니다. 이 기록의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.7922713089671973</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 물리치료학과의 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 4명을 모집한다고 명시되어 있지만, 생성된 응답에서는 학생을 모집하지 않는다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 모집 인원이 4명이라고 명시하고 있으나, 생성된 응답은 모집이 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없습니다. 원문에서 언급된 모집 인원에 대한 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 문장 구조는 괜찮지만, 원문과의 관련성이 떨어져서 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 다르며, 사실관계가 틀립니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 전혀 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 내용이 잘못되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7450115986640145</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 물리치료학과 가군에서는 학생을 모집하지 않습니다. 정원 내 모집 인원은 40명이며, 가군의 일반 학생은 0명입니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4983764080083655</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가 정보를 제공하는 링크도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 잘 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 정보를 추가로 제시하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4034962262538364</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트에 있는 모든 학과를 정확하게 나열하고 있으며, 추가적인 정보도 포함되어 있지 않으므로 사실성이 매우 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일치하며, 모든 정보가 일관되게 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실적인 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7823507676110137</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과, 스마트항만물류학과, 창업투자경영학과, 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학), 경기지도학과 등이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 서류와 면접의 비율이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8550021008054765</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서는 서류 평가 비중이 70%, 면접 평가 비중이 30%로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있으나, 원문에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'을 명시하고 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와는 다른 학과를 언급하고 있으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원문에서 언급된 특정 학과에 대한 정보와는 관련이 없습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7310160076378588</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 한의예과에서는 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여하고 있습니다.
+다른 학과에서는 일반적으로 수능 성적이 전반적인 평가에 반영되지만, 특정 과목에 대한 가산점은 적용하지 않습니다. 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조하시면 더 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답에서는 각 영역별로 25%의 비율로 반영된다고 잘못 설명하고 있습니다. 이는 원본 텍스트와 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있으나, 생성된 응답은 각 영역별로 다른 비율로 반영된다고 주장하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용인 수능 성적의 100% 반영에 대한 정보가 왜곡되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 성적 반영 비율에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 수능 성적 반영 방법에 대한 잘못된 정보로 인해 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.6944895259488039</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위: 한의예과 수학(미적분/기하) 응시자, 한의예과 수학(확률과통계) 응시자
+- 수능 반영영역: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목)
+- 반영비율: 각 영역별로 25%
+따라서, 한의예과 수학(미적분/기하) 응시자는 수학 부분에서만 10% 가산점이 부여되며, 다른 영역에서는 25%의 비율로 반영됩니다. 한의예과 수학(확률과통계) 응시자는 수학 부분에서 25%의 비율로 반영됩니다.
+더 자세한 내용은 https://ipsi.deu.ac.kr/main.do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사가 2024년 1월 16일에 진행된다고 정확히 언급하고 있지만, 추가적으로 디자인조형학과와 체육학과의 실기고사가 1월 17일에 진행된다고 잘못된 정보를 포함하고 있습니다. 원본 텍스트에는 이러한 정보가 없으므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보가 원본과 상충하여 일관성이 떨어집니다. 특히, 1월 17일에 대한 언급은 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 가군 실기고사에 대한 정보를 제공하고 있습니다. 그러나 추가된 정보가 원본 텍스트와 관련이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전체적으로 이해할 수 있지만, 추가된 정보가 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 잘못된 날짜 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 추가된 정보가 원본의 의미와 맥락에 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7304407786013356</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 2024. 01. 16.(화)에 실시됩니다. 또한, 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과에서는 같은 날인 2024. 01. 17.(수)에 실기고사가 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전형의 모집단위에 대한 잘못된 정보를 포함하고 있으며, '가군'과 '학생부종합 평가'라는 잘못된 용어를 사용하고 있습니다. 원본 텍스트와는 전혀 다른 내용을 담고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트에서 언급된 학과가 아닌 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전혀 다른 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 의미 전달이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원본 텍스트의 내용을 정확히 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5525982121597551</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 학생부종합 평가에서 제외됩니다. 이는 주요 변경사항 중에서 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적으로 전형요소 반영비율과 관련된 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 내용을 일관되게 전달하고 있습니다. 추가 정보도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 정확히 일치하며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.875525677232957</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 확인할 수 있습니다. 모든 다군 전형의 수능최저기준 항목은 "수능최저기준 없음"으로 표시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 학부에서 학과로 분리된 학과 목록을 대부분 정확하게 반영하고 있습니다. 그러나 일부 학과가 누락되었거나, 특정 세부사항이 생략되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 모든 학과가 언급되지 않아 완전한 일관성을 보이지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 학부에서 학과로 분리된 학과들에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 과정을 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 일부 학과의 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.7714110685772799</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 기계자동차로봇부품공학부는 기계공학과, 로봇자동화공학과, 자동차공학과로 분리되었습니다.
+2. 신소재공학부는 신소재공학과와 고분자나노공학과로 분리되었습니다.
+3. 건설공학부는 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과로 분리되었습니다.
+4. 화학환경공학부는 화학공학과, 환경공학과, 응용화학과로 분리되었습니다.
+5. 바이오응용공학부는 의생명공학과, 바이오의약공학과, 식품공학과로 분리되었습니다.
+6. 디자인공학부는 인간공학과와 제품디자인공학과로 분리되었습니다.
+위와 같이 동의대학교에서는 여러 학과들이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수)를 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.846015950337327</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에서 원서접수(인터넷) 마감일은 2024. 01. 06.(토)까지이며, 마감 시간은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 사실을 정확하게 반영하고 있지만, 학생부종합(성인학습자전형)에서 서류 반영 비율이 변경되었다고 언급했으나, 실제로는 2023년도와 2024년도 모두 서류 70% + 면접 30%로 동일하다는 점에서 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 서류 반영 비율에 대한 설명에서 불일치가 발생하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전형 요소 변화에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 서류 반영 비율에 대한 잘못된 설명으로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으나, 사실성과 정확성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 전형 요소 변화에 대한 적절한 설명을 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.8109780354911499</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다.
+1. **학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)**:
+   - 서류 반영 비율이 변경되었습니다. 2023년도는 서류 70% + 면접 30%였으나, 2024년도에는 서류 70% + 면접 30%로 동일합니다.
+   - 다만, 학생부 교과성적 반영방법이 변경되었습니다. 2023년도는 전 모집단위(한의예과 제외)에서 8과목을 반영하였으나, 2024년도에는 전 모집단위(한의예과 제외)에서 12과목을 반영하게 되었습니다.
+2. **학생부종합(조기취업형계약학과전형)**:
+   - 서류 반영 비율이 변경되었습니다. 2023년도는 서류 70% + 면접 30%였으나, 2024년도에는 서류 60% + 면접 40%로 변경되었습니다.
+위와 같은 내용에서 2024학년도에 전형 요소 변화가 있는 전형을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 비중이 70%라는 사실을 정확하게 반영하고 있지만, 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 70%라는 추가 정보를 제공하고 있습니다. 이 정보는 원문에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 레저스포츠학과와 태권도학과를 제외한 내용은 원문에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 실기 비중에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기 비중이 70%라는 사실은 정확하지만, 추가된 정보가 원문에 명시되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 추가된 정보가 원문과의 맥락에서 다소 어색하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7821475212287985</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기의 비중은 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 70%입니다. 이는 전형요소 반영비율에서 수능이 30%, 실기가 70%로 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공의 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8518251289831079</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도에 신설된 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 구성하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 또한, 실기고사 비율에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '체육학과'를 누락하고 '태권도학과'를 추가하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 '태권도학과'를 언급하고 있으며, 실기고사 비율에 대한 정보도 원본에 포함되어 있지 않아 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 불일치로 인해 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.660781310396234</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 수능(일반학생전형)에서는 실기고사를 요구하는 학과로는 레저스포츠학과와 태권도학과가 있습니다. 이 두 학과는 실기/실적 전형요소 반영비율이 적용되며, 그 비율은 수능 30%와 실기 70%입니다.
+따라서 가군에서 실기고사에 참여해야 하는 학과는:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과를 선택한 경우, 실기고사 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과 목록을 잘못 제시하고 있습니다. 원본 텍스트에 명시된 학과들과는 전혀 다른 학과들이 나열되어 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 제시된 학과들이 원본 텍스트와 관련이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보가 원본 텍스트와 전혀 일치하지 않기 때문에 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 제시된 학과들이 원본 텍스트와 관련이 없기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하고 이해하기 쉬우나, 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6103799632140822</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 정시모집군은 다음과 같은 학과들이 해당됩니다:
+1. 영어영문학과 (다)
+2. 호텔‧컨벤션경영학과 (가)
+3. 로봇자동화공학과 (가)
+4. 토목공학과 (나)
+5. 응용화학과 (다)
+6. 바이오의약공학과 (나)
+7. 제품디자인공학과 (가)
+8. 전기공학과 (가)
+9. 전자공학과 (가)
+위와 같은 학과들은 실기/실적 위주 전형에 해당하므로 지원 가능합니다. 기타 자세한 내용은 공식 웹사이트를 참조하시거나 문의해보시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부에서 제공하는 전공 목록을 일부 정확하게 언급하고 있지만, "부동산자산경영학부"와 관련된 전공은 원본 텍스트에 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "부동산자산경영학부"와 관련된 전공은 원본에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부와 관련된 전공에 대해 설명하고 있으나, 추가된 부동산 관련 전공은 원본 텍스트와 관련이 없습니다. 그러나 주요 전공에 대한 언급은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관된 구조를 가지고 있지만, 부동산 관련 전공이 추가됨으로써 논리적 흐름이 약간 깨졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 부동산 관련 전공의 추가로 인해 의미가 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8645034550598426</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+따라서 동의대학교의 라이프융합학부에서는 주로 스타트업 창업 투자, 뷰티 비즈니스, 라이프 생활 문화, 부동산 투자, 부동산 개발 경영 등 다양한 분야를 다루는 전공들을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있으며, 잘못된 정보(예: 학교 유형에 대한 설명)가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 특히, 농어촌학생전형에 대한 언급이 없고, 지원 가능한 학교 유형에 대한 설명이 원본과 다릅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 원본의 핵심 포인트에서 벗어나는 경향이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적으로 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히, 지원 가능한 학교 유형에 대한 설명이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많아 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자가 이해하기에는 언어가 중국어로 되어 있어 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5618255672040079</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，你可以申请东义大学的一般学生成绩综合招生。具体来说，你的学校类型（特殊目的高中）包括科学高中、国际高中和外语高中等都符合支持资格。
+但是，请注意以下几点：
+1. 确认你所在的特殊高中是否在支持范围内。
+2. 仔细阅读东义大学的招生简章中的详细要求和流程。
+3. 准备好所有必要的申请材料，如成绩证明、身份证明等。
+如果还有疑问或需要进一步的帮助，可以访问东义大学官网 https://ipsi. deu. ac. kr/main. do 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 동의대 나군 전형에서 가장 많이 모집하는 학과가 중어중국학과와 신소재공학과라고 명시하고 있지만, 생성된 응답은 다른 학과들에 대한 정보를 제공하며, 모집 인원에 대한 잘못된 해석을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트에서 언급된 학과와 모집 인원에 대한 정보가 전혀 반영되지 않고, 다른 학과들에 대한 정보로 대체되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보인 가장 많이 모집하는 학과에 대한 언급이 없고, 다른 학과들에 대한 정보로 흐트러져 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 다양한 학과에 대한 언급이 있지만, 주제와의 연관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 제공합니다. 원본 텍스트의 핵심 사실이 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없으며, 잘못된 정보로 가득 차 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 주제와 관련된 정보가 부족하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해가 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6515588621843923</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 판단하기 위해서는 각 학과별로 정원외 모집인원을 확인해야 합니다. 제공된 정보에 따르면, 고분자나노공학과와 토목공학과, 바이오의약공학과, 인간공학과, 컴퓨터공학과 교직, 인공지능학과, 디지털콘텐츠학과, 게임공학과는 최대 선발 가능인원이 3명 이내이며, 영화학과는 최대 선발 가능인원이 1명 이내입니다. 이러한 정보를 바탕으로 볼 때, 가장 많은 모집 인원을 차지하는 학과는 토목공학과와 바이오의약공학과로 보일 수 있습니다. 하지만 정확한 결론은 각 학과별 정원외 모집인원을 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 과학고, 국제고, 외국어고, 예술고, 체육고 출신자는 지원할 수 없으며, 마이스터고도 지원할 수 없다는 점을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 특수목적고 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 이와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 지원 자격에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 낮은 점수를 받을 수밖에 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6956302324941047</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 과학고, 국제고, 외국어고는 '특수목적고의 과학고, 국제고, 외국어고'로 분류되어 지원 가능합니다. 예술고와 체육고는 '특수목적고의 예술고, 체육고'로 분류되어 지원이 가능하며, 마이스터고는 '특수목적고의 마이스터고'로 분류되어 지원이 가능합니다.
+따라서, 특수목적고등학교 학생으로서 과학고, 국제고, 외국어고, 예술고, 체육고 또는 마이스터고를 졸업한 경우 동의대학교의 '학생부교과(농어촌학생전형)'로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 없다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8564958255670451</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 해당 정보를 찾기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 자세한 내용을 확인해보시거나, 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 수치를 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와는 전혀 다른 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 전혀 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 정보를 제공하므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5124759463510008</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다. 또한, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다. 이외에도, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가된 정보가 있습니다. 예를 들어, 최초 합격자 등록 날짜와 관련된 정보는 원본에 없으며, 충원 합격자 발표와 등록에 대한 정보도 다소 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용과 변경된 세부사항으로 인해 일관성이 떨어집니다. 특히, 등록 관련 정보가 원본에 없던 내용이므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 모든 주요 발표 일정이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히, 등록 관련 정보는 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 약간의 부족함이 있습니다. 그러나 관련성과 유창성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.820976964580117</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+- 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 14시
+- 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내)
+- 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 16시
+- 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 16시
+- 충원 합격자 3차 이후 발표 및 등록 : 개별 전화 통보를 통해 안내되며, 2024년 2월 15일 목요일부터 2월 20일 화요일까지 (오후 18시까지)
+각 합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접 일정에 대한 구체적인 날짜가 없다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 면접 일정이 명확히 제시되어 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 정보를 제공하지 않고, 웹사이트를 참조하라는 내용으로 대체하고 있습니다. 원본 텍스트의 핵심 주제인 면접 일정과 관련이 있지만, 직접적인 답변을 제공하지 않기 때문에 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성 때문에 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 면접 일정에 대한 정보가 없다는 주장은 원본 텍스트와의 연결을 약화시킵니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접 일정에 대한 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 면접 일정에 대한 정보가 없다는 주장은 원본의 의미를 왜곡합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도로 평가합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3793382237750954</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접일정에 대한 구체적인 날짜가 없습니다. 면접 일정과 관련된 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 대학 입학처와 직접 연락하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 공식 웹사이트 링크를 제공하는 부분은 추가 정보로서 유용하지만, 원본 텍스트에 명시된 내용과는 직접적인 관련이 없습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 수능 최저학력 기준이 없음을 언급하고 있습니다. 그러나 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "제공된 정보에 따르면"이라는 문구가 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 수능 최저학력 기준이 없다는 점을 잘 설명하고 있습니다. 그러나 추가적인 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 일관성 및 정확성 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 추가 정보가 포함되어 있어 약간의 의미적 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문구가 약간 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5482530998045215</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 한의예과의 경우 수능 위주 전형으로 모집되며, 수능 최저학력 기준이 없습니다. 따라서 한의예과에서 수능 최저학력 기준을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5824539375309156</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집에서는 제공된 정보에 따르면, 모든 전형의 경우 수능 최저학력 기준이 없습니다. 각 전형별로 수능 위주로 이루어져 있으며, 일부 전형은 수능 점수만을 기반으로 합격자를 선정합니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시거나 대학 입시 관련 문의를 직접 해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정을 정확하게 반영하고 있지만, 3차 이후의 일정에 대한 정보가 원본 텍스트와 다르게 "개별 전화 통보로 이루어집니다"라고 언급되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 3차 이후 일정에 대한 설명이 원본과 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자 발표 일정에 대한 질문에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 3차 이후 일정에 대한 설명이 추가되면서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 1차 및 2차 발표 일정은 정확하지만, 3차 이후 일정에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 일부 사실적 오류로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 3차 이후 일정에 대한 설명이 부적절하여 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 정보가 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.909970501892838</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다.
+1차 충원합격자 발표는 2024년 2월 14일(수) 오전 9시입니다.
+2차 충원합격자 발표는 2024년 2월 15일(목) 오전 9시입니다.
+이후의 일정은 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 1차, 2차, 3차 이후의 발표 일정이 명시되어 있지만, 생성된 응답은 전혀 다른 날짜와 시간을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 발표 일정과 생성된 응답의 내용은 서로 관련이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 충원합격자 발표 일정에 대한 정보인데, 생성된 응답은 다른 날짜와 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.6684395524823792</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 2024년 2월 2일 금요일 오후 2시입니다. 이 정보는 합격자 발표 및 등록금 납부 최초 합격자 발표 항목에서 얻을 수 있습니다. 자세한 내용은 입학 안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시모집 등록자의 등록 포기로 인한 결원에 대한 정보를 제공하지 않고, 추가 모집 여부에 대한 불확실성을 언급하고 있습니다. 이는 원문에서 명확히 언급된 사실과 일치하지 않으며, 정보의 일부가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있으며, 추가 모집에 대한 정보가 불확실하다고 언급하고 있습니다. 원문에서는 추가 모집이 이루어진다고 명시하고 있으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가 모집에 대한 질문에 대한 답변을 제공하고 있으나, 원문에서 제공된 구체적인 정보와는 다소 거리가 있습니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제가 일관되게 유지되고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다르게 추가 모집에 대한 불확실성을 강조하고 있습니다. 이는 원문에서 명확히 언급된 사실과 상충합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 일치성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 부족하며, 원문에서 제공된 정보와는 다른 방향으로 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5153241767827313</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 특정 단과대학이나 전형의 추가 모집 여부는 명확히 알 수 없습니다. 추가 모집에 대한 자세한 정보가 필요하다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시거나 대학 입학처와 직접 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 성인 학습자를 위한 전형의 평가 기준과 방법에 대한 내용을 포함하고 있습니다. 원본 텍스트의 구체적인 내용(모집단위, 모집인원, 제출서류 등)이 누락되어 있으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 평생학습자전형의 구체적인 정보와 절차를 설명하고 있지만, 생성된 응답은 전형의 평가 기준에 대한 설명으로 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 전형의 평가 기준에 대한 설명은 있지만, 원본 텍스트의 핵심 정보는 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 내부적으로 논리적인 흐름이 있으며, 각 평가 기준에 대한 설명이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 구체적인 내용이 누락되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 설명을 시도하고 있지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5085973347366883</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 대학 입시에서 성인 학습자를 위한 특별한 전형입니다. 이 전형에서는 성인 학습자의 경험과 역량을 중점적으로 평가합니다. 평생학습자전형의 서류평가와 면접평가 기준 및 내용에 대해 자세히 설명드리겠습니다.
+1. **서류평가**:
+   - **평가영역**: 공동체역량, 학업역량, 전공적합성
+   - **평가요소**:
+     - **공동체역량**: 협업능력 (공동체 목표를 위한 협력적 태도 나눔과 배려, 학교폭력 여부)
+     - **학업역량**: 학업에 대한 흥미 및 주도적 노력, 수업시간 적극적 참여, 학업 성취정도, 학년별 성적 추이
+     - **전공적합성**: 지원 전공(계열) 관련 활동과 경험, 지원 전공(계열) 관련 학업의지, 학교생활의 적극적 참여
+2. **면접평가**:
+   - **평가영역**: 학업역량 및 전공적합성
+   - **평가요소**:
+     - **학업역량**: 문제해결능력 (학업 문제에 대한 원인 탐색과 해결 방안 마련, 노력)
+     - **전공적합성**: 진로 정보 탐색 능력 (지원 전공(계열)에 대한 관심과 이해, 진로 탐색 활동을 통한 성장 과정과 결과)
+3. **평가 기준 및 배점**:
+   - **평균 점수**: 각 평가 영역별로 1등급부터 5등급까지의 등급이 있으며, 각 등급에 따라 배점을 부여합니다.
+     - **공동체역량**: 1등급 140점, 2등급 129.5점, 3등급 119점, 4등급 108.5점, 5등급 98점
+     - **학업역량**: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+     - **전공적합성**: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+4. **면접평가 방법**:
+   - **평균 점수**: 학업역량과 전공적합성에 대한 면접 평가를 통해 1등급부터 5등급까지의 등급이 부여됩니다.
+     - **학업역량**: 1등급 180점, 2등급 166.5점, 3등급 153점, 4등급 139.5점, 5등급 126점
+     - **전공적합성**: 1등급 120점, 2등급 111점, 3등급 102점, 4등급 93점, 5등급 84점
+이러한 평가 기준과 방법을 통해 성인 학습자의 역량과 적합성을 종합적으로 판단합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직 기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6310380791065618</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공 단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시 근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업 또는 자영업자 포함)
+2. 재직 기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직 기간이 3년 이상(예정)이어야 함
+   - 재직 기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직 기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무 복무 경력도 재직 기간으로 인정함
+이러한 자격 요건을 충족하면 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 실기 준비물과 주제에 대한 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하는 반면, 생성된 응답은 실기 준비에 대한 정보로 전환되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 실기 준비에 대한 세부사항을 다루고 있어 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 문맥상 자연스럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 각 항목이 나열되어 있지만, 전체적으로 통합된 메시지가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사에 대한 구체적인 정보가 포함되어 있지만, 원본의 핵심 정보는 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본의 정보와는 다른 주제를 다루고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.407764012016142</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 모집 단위에 따라 다르게 준비해야 합니다.
+1. **디자인조형학과** (시각디자인, 산업디자인, 공예디자인):
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등.
+   - **실기주제**: 주제A와 주제B에서 선택하여 연결된 주제를 추첨으로 결정합니다. 예시: 잠자리와 저울 (주제A), 콜라병과 계절 (주제B).
+   - **화지크기**: 켄트지3절.
+   - **시간**: 5시간.
+2. **체육학과**:
+   - **모집단위 및 실기종목**:
+     - 체육학과: 제자리 멀리뛰기 (240점).
+     - 체육학과: 메디신볼 던지기 (243점).
+     - 체육학과: Z-런 (230점).
+실제로 실기를 치르려면 해당 모집단위와 실기종목에 따라 준비해야 합니다. 예를 들어, 디자인조형학과의 시각디자인 학생은 주제A와 B에서 선택하여 연결된 주제를 그릴 준비를 해야 하며, 체육학과의 학생들은 각각의 실기종목에 맞는 운동을 연습해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보를 제공하고 있지만, 원본 텍스트에서 언급된 대기실 및 입실시간에 대한 정보는 포함되어 있지 않으며, 실기종목에 대한 정보도 정확하지 않을 수 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보만을 제공하고 있는데, 생성된 응답은 실기종목에 대한 정보로 전환되어 원본의 핵심 내용을 무시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간에 대한 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 실기종목에 대한 정보가 포함되어 있지만, 원본 텍스트의 사실과는 관련이 없으며, 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되었습니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.242231382626548</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 
+모집단위별로 실기종목이 다르므로, 정확한 모집단위를 확인해야 합니다.
+- 체육학과의 경우 메디신볼 던지기가 실시됩니다.
+- 제자리 멀리뛰기는 체육학과의 일부 모집단위에서 실시될 수 있습니다.
+- Z-런은 다른 모집단위에서 실시될 수 있으므로, 해당 모집단위를 확인해야 합니다.
+모집단위를 정확히 알려주시면 더 구체적인 정보를 제공할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받는다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 다루고 있는 주제와는 관련이 있으나, 잘못된 정보로 인해 주제의 핵심을 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있으나, 원문과의 불일치로 인해 논리적인 흐름이 약해집니다. 원문과의 연결성이 부족하여 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다릅니다. 전화 통보가 이루어지지 않는다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 전화 통보에 대한 잘못된 정보로 인해 원문의 의도를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6285932166947088</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 이 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+만약 자세한 내용이 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경찰행정학과에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "제공된 정보에서"라는 표현은 원문에서의 "정시 모집요강"이라는 구체적인 맥락을 약간 생략하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 경찰행정학과에 대한 정보가 없음을 언급하고 있습니다. 다만, "제공된 정보"라는 표현이 원문에서의 맥락을 완전히 전달하지는 못합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "제공된 정보에서"라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있습니다. 다만, "정시 모집요강"이라는 구체적인 맥락이 생략되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 품질을 보여주고 있으며, 전반적으로 원문과 잘 연결되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 적절한 맥락을 유지하고 있습니다. 그러나 약간의 맥락 손실이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 일부 표현이 약간 어색할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.6805431919712075</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경찰행정학과에 대한 내용이 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 포함하고 있습니다. 특정 전형을 통해 지원이 가능하다고 언급했지만, 이는 원문에서 명시된 사실과 모순됩니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 말하고 있지만, 생성된 응답은 특정 전형을 통해 지원이 가능하다고 주장하고 있어 서로 충돌합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 정보가 포함되어 있습니다. 원문 질문에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원문과의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상반되는 내용을 포함하고 있어 정확성이 낮습니다. 수능에 응시하지 않으면 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 원문의 맥락을 벗어난 내용을 포함하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3  
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.3770880000923472</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도부터 일부 전형이 변경되었습니다. 예를 들어, 학생부종합 평가전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자에게 지원할 수 있는 기회를 제공하고 있습니다. 따라서 정시에 수능 응시하지 않아도 특정 전형을 통해 지원이 가능합니다.
+추가적으로, 2024학년도부터는 전형명과 지원 자격에도 변화가 있었습니다. 예를 들어, 학생부종합(성인학습자(정원내)전형)은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자에게 지원할 수 있는 기회가 주어집니다.
+따라서, 정시에 수능 응시하지 않아도 특정 전형을 통해 지원이 가능합니다. 하지만 모든 전형이 그러한 조건을 제공하는 것은 아니므로, 각 모집단위의 전형요소와 지원 자격을 확인하시기 바랍니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. "총 재직기간이 3년 이상이어야 한다"는 정보는 원문에 포함되어 있지 않으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있어 일관성이 없습니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 불가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 질문에 대한 답변이 아닌 다른 조건을 제시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 관련성이 떨어져서 전체적인 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 맞지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 주제와 관련된 정보가 아닌 다른 조건을 제시하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.4626336096501346</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다. 따라서 현재 상황에서는 정시 지원이 불가능합니다. 재직기간이 부족한 경우에는 추가적인 경력이나 자격증 등을 통해 요구 조건을 충족시키는 방법을 고려해 보세요. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 대학 입시 관련 상담을 받으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8408481202520051</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다. 자세한 정보는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)를 참조하세요.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 12일(금)까지, 마감 시간은 오후 5시까지입니다. 서류 제출 대상과 방법에 대한 자세한 정보는 [IV. 전형별 세부 안내 참조](https://ipsi.deu.ac.kr/main.do)를 확인하세요.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부 (최초 합격자)**: 2024년 2월 2일(금) 오후 2시입니다. 이날 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **합격자 등록 (최초 합격자)**: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 등록금을 납부해야 합니다.
+이 외에도 충원 합격자 발표 및 등록 일정이 있습니다. 자세한 내용은 [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8582719208674319</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 다음과 같이 설명하겠습니다.
+1. **원서접수(인터넷)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 06.(토)
+   - 마감 시간: 18시까지
+   - 참고 사이트: [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)
+2. **서류 제출 (제출서류가 있는 경우)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 12.(금)
+   - 마감 시간: 17시까지 도착
+   - 참고 사이트: [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)
+3. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 대기실 및 입실시간 안내: 2024. 01. 12.(금) 14:00 이후 [입학안내 홈페이지](http://ipsi.deu.ac.kr)에서 조회
+4. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 대기실 및 입실시간 안내: 2024. 01. 12.(금) 14:00 이후 [입학안내 홈페이지](http://ipsi.deu.ac.kr)에서 조회
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024. 02. 02.(금) 14:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 등록: 개별 전화 통보 시 안내
+이상으로 동의대학교 정시 모집 일정을 설명하였습니다. 자세한 내용은 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 부정하고, 수능 미응시자도 지원 가능하다고 잘못된 정보를 제공합니다. 이는 원본 텍스트와 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있습니다. 원본에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있으나, 수능 미응시자에 대한 잘못된 정보를 포함하고 있어 원본 텍스트의 핵심 주제와는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 수능 미응시자에 대한 정보가 모순되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하지만, 잘못된 사실을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6542977045386217</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 학생부종합(평생학습자전형)이 신설되었으며, 이는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자에게 지원할 수 있는 전형입니다. 따라서 수능 미응시자도 해당 전형을 통해 지원 가능합니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 충원 합격이 36명까지 이루어졌다고 명시되어 있지만, 생성된 응답에서는 이 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 내용을 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 관련 내용이 없다고 하면서도 추가적인 정보를 요청하도록 유도하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 충원 합격에 대한 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원문에서 제공된 정보와의 연결이 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하지 못하고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 어느 정도 일치하지만, 중요한 정보가 누락되어 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 부족으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6047743223005452</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 전년도 전자공학과의 충원 합격 관련 내용이 없습니다. 이와 관련된 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시거나, 입학관리팀에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 이는 원본 텍스트의 핵심 정보를 누락한 것입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교와 관련된 정보를 제공하려고 하지만, 전화번호에 대한 질문에 대한 직접적인 답변이 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5730890967190936</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要该信息，建议访问东义大学官网或直接联系学校的相关部门以获取准确的联系方式。更多信息可以参考 https://ipsi. deu. ac. kr/main. do。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 처리 방법에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 홈페이지에서 결과를 확인할 수 있다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 전화 통화가 되지 않을 경우 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 다른 방법으로 정보를 얻을 수 있다고 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화 통화가 되지 않을 경우의 처리 방법에 대한 정확한 정보를 제공하지 않기 때문에 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용과의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 부적절하여 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5678197412578846</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에게는 개별 전화 통보가 이루어집니다. 만약 전화 통화가 되지 않는 경우, 해당 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한 고지서도 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행으로 하여야 합니다. 이와 같이 전화 통화가 되지 않더라도 다른 방법을 통해 정보를 얻을 수 있도록 돕고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 제출해야 할 서류 목록이 명확하게 제시되어 있지만, 생성된 응답에서는 서류가 필요 없다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 제출해야 할 서류를 명시하고 있지만, 생성된 응답은 서류가 필요 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 제출 서류에 대한 정보와는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 제출해야 할 서류에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.700180691602285</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형은 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 일환으로 별도로 제출해야 할 서류는 없습니다. 농어촌학생전형 지원 자격은 재직기간 산정 기준에 해당되며, 그 세부사항은 다음과 같습니다:
+1. 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+2. 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+3. 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+4. 군 의무복무 경력도 재직기간으로 인정함
+따라서 농어촌학생전형으로 지원 시 제출해야 할 서류는 나군 학생부종합(재직자전형)의 지원자격 증빙서류를 포함하여, 1차 산업 종사자의 경우 국가·지방자치단체가 발급하는 공적증명서가 필요합니다. 
+만약 자세한 내용이 궁금하시다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 '6년과정' 서류 제출 가능성에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 제출해야 할 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정'에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정' 서류 제출 가능성에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, '6년과정'에 대한 언급은 원본의 의미와 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보가 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8162835725703124</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "저소득 기회균등 전형"이라는 표현이 추가되어 약간의 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 전반적으로 일관성을 유지하고 있습니다. 다만, "저소득 기회균등 전형"이라는 표현이 원본 텍스트에 명시되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보에서는"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다. 다만, "저소득 기회균등 전형"이라는 표현이 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "저소득 기회균등 전형"이라는 표현이 정확하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 불일치와 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "저소득 기회균등 전형"이라는 표현이 다소 부적절하게 사용되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 어색하여 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5867173092662686</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 저소득 기회균등 전형에 대한 내용이 없습니다. 정확한 답변을 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 왜곡하고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답에서는 2.5등급이 절사되어 3등급으로 처리된다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 절사 원칙이 적용된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6542041626436003</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되어 3등급으로 처리됩니다. 수능 성적 평균산출시에는 절사 원칙이 적용되므로, 2.5등급은 3등급으로 반올림하여 계산합니다.
+https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시면 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 차수에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 일정에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8261691729005323</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표 일정은 2024년 2월 14일(수) 09:00입니다.
+2차 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+3차 이후 발표 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+이와 같이 총 3차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 점수 4.6이 e-비즈니스학과의 모집 요건을 충족하는지에 대한 질문에 대해 수능 최저 점수를 확인해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서는 4.6점이 최초 합격자와 최종 등록자의 평균을 약간 상회한다고 명시하고 있어, 이 점에서 다소 모순이 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 수능 최저 점수를 확인해야 한다고 하지만, 원본 텍스트에서는 4.6점이 평균을 초과한다고 언급하고 있습니다. 이로 인해 응답의 일관성이 떨어지며, 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 정보를 제공하고 있으며, e-비즈니스학과의 추가 합격 가능성에 대한 질문에 적절히 대응하고 있습니다. 그러나 원본 텍스트의 구체적인 평균 점수에 대한 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 다소 약해 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 최저 점수에 대한 정보가 부족하여 정확성이 떨어집니다. 원본 텍스트에서 제공된 평균 점수와의 비교가 부족하므로 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서 응답이 잘 작성되었지만, 사실성과 일관성에서 다소 부족함이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 내용과의 연결이 부족하여 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5716021494563143</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>4.6이라는 수능 점수가 e비즈니스학과의 모집요건을 충족하는지 확인하기 위해서는 해당 단과대학 및 계열의 수능 최저점수를 알아야 합니다. 현재 제공된 정보로는 특정 단과대학 및 계열의 정확한 수능 최저 점수가 없으므로, e비즈니스학과의 수능 최저 점수를 확인해야 합니다.
+만약 e비즈니스학과의 수능 최저점수가 4.6보다 낮다면, 해당 점수로는 추가 합격이 가능할 것입니다. 반대로 만약 최저점수가 높다면, 추가 합격은 불가능할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 관련된 정보를 제공하지만, 정시 등급이 5.3인 경우 합격 가능성이 높다고 주장하는 부분은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 5.3의 정시 등급이 합격하기 어려울 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격이 어려울 수 있다고 언급하는 반면, 생성된 응답은 합격 가능성이 높다고 주장합니다. 이로 인해 두 텍스트 간에 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률과 관련된 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 정시 등급과 합격 가능성에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관성이 떨어집니다. 특히, 정시 등급과 합격 가능성에 대한 논의가 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 정시 등급이 5.3인 경우 합격 가능성이 높다는 주장은 원본 텍스트의 내용과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다. 특히 합격 가능성에 대한 주장이 원본과 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6437034782644048</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최초합격자 경쟁률을 확인해보겠습니다.
+ICT융합공과대학의 e비즈니스학과는 지원 인원이 5명이고, 충원 합격자는 6명입니다. 이에 따라 경쟁률은 2.20이며, 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 303.80이고, 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 426.80입니다.
+정시 등급이 5.3인 경우, 이는 매우 높은 등급이며, 일반적으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합과 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 상당히 높아야 합니다. 예를 들어, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합이 350 이상이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 450 이상일 경우, 이는 매우 높은 점수를 받았음을 의미합니다.
+따라서, 정시 등급이 5.3인 경우, e비즈니스학과에 최초합격 가능성은 상당히 높습니다. 그러나, 최종 결정은 동의대학교에서 발표하는 최고점 합격자 명단을 확인해야 합니다. 따라서, 최신 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 다양한 전형 요소와 제출 서류에 대한 정보를 제공하며, 합격 가능성이 다를 수 있다고 주장합니다. 이는 원본의 주장을 반박하는 내용입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 다소 벗어난 정보가 포함되어 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 내용이 복잡하게 구성되어 있어 이해하기 어려운 부분도 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.4674623318793968</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생의 경우, 정원외 전형 요소 반영 비율과 모집단위에 따라 합격 가능성은 다릅니다. 
+1. **모집단위와 전형요소 반영 비율**:
+   - 스마트호스피탈리티학과: 서류 60%, 면접 40%
+   - 미래형자동차학과: 서류 60%, 면접 40%
+   - 소프트웨어융합학과: 서류 60%, 면접 40%
+2. **제출서류**:
+   - 고교 졸업(예정)자: 학생부 온라인 제공 동의 필요 없음
+   - 검정고시 출신자: 검정고시 합격증서, 성적증명서, 학교생활기록부 대체 서류
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 성적증명서, 학교생활기록부 대체 서류
+3. **평가영역 및 배점**:
+   - 공동체역량: 1등급 120점, 5등급 84점
+   - 학업역량: 1등급 240점, 5등급 168점
+   - 전공적합성: 1등급 240점, 5등급 168점
+이정도의 성적이 모집단위와 전형요소 반영 비율에 따라 합격 가능성은 다를 수 있습니다. 예비합격 가능성을 확인하려면, 자신의 성적과 모집단위의 평가 기준을 비교해야 합니다.
+**추천 사항:**
+1. **모집단위와 전형요소 반영 비율 확인**: 지원하고자 하는 학과와 모집단위를 확인하세요.
+2. **평가기준 비교**: 자신의 성적과 모집단위의 평가 기준을 비교하여 합격 가능성 판단하세요.
+3. **추천서 및 자기소개서 작성**: 필요하다면 추천서와 자기소개서를 작성하여 지원 자질을 강화하세요.
+만약 더 구체적인 조언이 필요하시다면, "https://ipsi. deu. ac. kr/main. do"로 접속해 보시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률, 충원 합격자 수, 평균 표준 변환 점수와 같은 추가 정보를 제공하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 평균 등급과 비교하여 성적 3.44의 합격 가능성을 언급하는 부분이 다소 모호하게 표현되어 있어 완전한 일치를 보이지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 성적 3.44에 대한 합격 가능성을 낮게 평가하고 있으며, 이는 원본 텍스트의 주장을 지지합니다. 그러나 추가된 정보가 원본 텍스트의 주장을 약간 변형시키는 경향이 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 정확합니다. 그러나 원본 텍스트의 특정 세부사항과의 비교에서 약간의 차이가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서의 차이로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 원본의 의도와 약간 다르게 해석될 수 있는 여지가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해 가능성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5913586395652237</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격 (후보순위)은 37입니다. 평균 표준 변환 점수는 353.48이고, 이는 성적 3.44보다 높습니다.
+성적 3.44의 경우, 동의대학교 간호학과에 합격 가능성은 매우 낮다고 볼 수 있습니다. 하지만 최종 합격 여부는 표준 변환 점수뿐만 아니라 다른 요소들(예: 진로선택과목 성적 등)도 고려되기 때문에 정확한 판단을 위해서는 동의대학교 간호학과의 전형요건 및 평가방법을 확인해보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 해당 학과의 정시모집 요건을 확인하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 2.52라는 정시 등급이 수능 점수를 나타내지 않는다는 주장은 사실과 다릅니다. 원본 텍스트는 2.52가 평균 등급보다 높다고 언급하고 있으며, 생성된 응답은 이를 반박하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 2.52가 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 2.52가 낮은 점수라고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 포인트인 2.52의 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 2.52의 의미에 대한 설명이 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 2.52의 의미에 대해 잘못된 정보를 제공하고 있으며, 원본 텍스트의 사실과 상충합니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 전반적으로 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 2.52의 해석에서 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6501058707129497</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 평균 점수는 353.48이고, 표준 편차는 4.66입니다.
+현재 제시된 성적인 2.52는 수능 점수를 나타내지 않습니다. 대신 국어+수학+탐구(2개)의 평균 점수를 나타냅니다. 간호학과의 경우, 평균 점수가 353.48이고 표준 편차가 4.66이므로, 2.52는 매우 낮은 점수입니다.
+따라서, 현재 제시된 성적인 2.52로는 동의대학교 간호학과에 최종 합격하기 어려울 것으로 보입니다. 실제 수능 점수가 더 높아야 하며, 경쟁률과 충원 합격자 수를 고려해야 합니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급에 대한 정보와 지원 시 필요한 성적 기준을 언급하고 있지만, 3.7의 성적이 평균 등급보다 낮다고 잘못 해석하고 있습니다. 실제로 3.7은 평균 등급 3.37보다 높은 성적이므로, 합격 가능성이 낮다는 주장은 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 성적 기준을 확인해야 한다고 언급하지만, 원본 텍스트의 내용과는 일치하지 않는 부분이 있습니다. 원본 텍스트는 3.7의 성적이 평균보다 낮다고 명시하고 있어, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 성적 기준에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 3.7의 성적에 대한 해석이 잘못되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.7의 성적이 평균보다 낮다고 잘못된 정보를 제공하고 있어 정확성에 문제가 있습니다. 이로 인해 전체적인 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 3.7의 성적에 대한 해석이 부적절하여 약간의 의미적 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용의 혼란으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6575829965475567</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 성적을 가지고 간호학과에 지원하려면, 해당 모집단위에서 요구하는 최저 성적 기준을 확인해야 합니다. 간호학과는 보통 국어, 수학, 영어 등 주요 과목들의 성적이 필요하며, 각 학교마다 요구하는 점수 기준이 다릅니다.
+현재 제공된 정보로는 특정 모집단위의 최저 성적 기준을 확인할 수 없습니다. 따라서 간호학과에 지원하려면, 해당 학교의 입학처 웹사이트나 전형 안내서를 참조하여 최저 성적 기준을 확인하시기 바랍니다.
+만약 특정 모집단위의 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 해당 학교의 입학처 웹사이트로 접속하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 구체적인 수치를 명확히 반영하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 간호학과의 평균 등급에 대한 구체적인 언급이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하며, 질문에 대한 답변으로서 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성, 일관성, 정확성에서 부족함이 있어 종합 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 문장이 길어 다소 복잡할 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.5663698535802909</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **전형명**: 정시모집군 (가) 또는 (나)
+2. **학생부 교과성적 반영방법**:
+   - 2024학년도: 전 모집단위(한의예과 제외) 12과목 중 석차등급 상위 12과목
+3. **진로선택과목 성적반영**: 
+   - 2024학년도: 반영교과 중 최대 2과목 이내 반영 가능
+간호학과는 주로 학생부 교과성적이 중요하며, 특히 국어, 수학, 영어 등의 과목 성적을 높게 평가합니다. 2024학년도의 경우, 진로선택과목 성적반영이 A:1등급 B:3등급 C:5등급으로 조정되었으므로, 성적은 상대적으로 더 중요해졌습니다.
+현재 학생부 교과성적이 2.58이라면, 국어, 수학, 영어 등의 과목에서 높은 점수를 받았다면 합격 가능성은 있습니다. 하지만, 이는 단순히 성적만으로 판단하는 것이 아니라, 전체 학생부 성적과 진로선택과목 성적을 종합적으로 평가받습니다.
+따라서, 정확한 합격 가능성을 확인하려면 동의대학교 입학처 홈페이지나 전화로 문의하시는 것을 추천드립니다. 더 자세한 정보를 얻으시기 바랍니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 게임공학과에 대한 정보가 없다고 주장하지만, 원본 텍스트에서는 예비 7번의 학생이 게임공학과에 합격할 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 게임공학과에 대한 정보가 없다고 하면서도 다른 학과에 대한 정보를 제공하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 게임공학과에 대한 질문에 대한 답변을 제공하려고 하지만, 제공된 정보가 원본 텍스트와 관련이 적고, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 일부 문장에서 어색한 표현이 있을 수 있습니다. 전반적으로 읽기에는 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 어느 정도 일관성을 가지고 있으나, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번의 학생이 게임공학과에 합격할 가능성이 낮다는 정보를 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 모두 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 어느 정도 적절하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6221143924876315</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생이 게임공학과에 지원하려면, 해당 모집단위의 정보를 확인해야 합니다. 하지만 제공된 정보에서 게임공학과는 없습니다. 
+제가 제공받은 정보 중에서는 ICT융합공과대학 소프트웨어융합학과가 7명을 모집하고 있습니다. 이와 관련하여 지원하실 경우, 서류평가와 면접평가의 비율이 각각 60%와 40%로 되어 있습니다.
+따라서, 게임공학과에 지원하려면 해당 대학 홈페이지나 입학처에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다. 
+"https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 자세한 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 등급 4.16이 상대적으로 높은 점수라는 점을 언급하고 있으며, 게임공학과의 경쟁률이 높다는 점도 언급하고 있습니다. 그러나, 추가 합격 가능성이 낮을 수 있다는 주장은 원문에서 명시된 합격 가능성이 높다는 내용과 상충합니다. 따라서, 일부 사실이 정확하지만, 원문과의 일관성에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, 추가 합격 가능성에 대한 언급이 원문과 상충합니다. 원문은 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 가능성이 낮을 수 있다고 주장하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 수능 등급, 경쟁률, 추가 합격 가능성 등 관련된 정보를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 원문과의 일관성 문제로 인해 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 등급과 관련된 정보는 정확하게 전달하고 있지만, 추가 합격 가능성에 대한 주장이 원문과 다르기 때문에 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 일관성과 정확성에서 약간의 문제가 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 일부 주장이 원문과 상충하여 의미의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7541198830365492</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 상대적으로 높은 점수입니다만, 게임공학과는 일반적으로 경쟁률이 높은 전형 중 하나로 보입니다. 동의대학교 게임공학과의 경우, 모집인원과 지원 인원을 고려할 때 추가 합격 가능성은 낮을 수 있습니다.
+게임공학과의 경우, 2024학년도 모집단위는 영화학과와 패션디자인학과가 아닌 게임공학과를 대상으로 하고 있지 않으므로, 해당 정보로는 정확한 판단이 어렵습니다. 수능 등급만으로 합격 가능성을 판단하기에는 부족한 정보가 많습니다.
+추가적으로 확인해야 할 사항들은 다음과 같습니다:
+1. 2024학년도 동의대학교 게임공학과의 모집인원과 지원 인원
+2. 경쟁률
+3. 평균 수능 등급
+이런 정보들을 통해 더 정확한 판단을 내릴 수 있습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi.deu.ac.kr/main.do 를 방문하여 공식 입학처 웹사이트에서 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 지원 자격과 전형 요소 반영 비율에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 정시 성적 3.75와 관련된 합격 가능성에 대한 정보는 포함되어 있지 않습니다. 또한, 최초등록자와 관련된 정보가 잘못된 방향으로 해석되고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 최초등록자와 관련된 조건을 설명하는 데 집중하고 있습니다. 원본 텍스트의 합격 가능성에 대한 정보와는 상충되는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과 지원에 대한 정보를 제공하지만, 원본 텍스트의 핵심 주제인 정시 성적과 합격 가능성에 대한 직접적인 관련성이 부족합니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 최초등록자와 관련된 조건에 대한 설명이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5753009033018185</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 지원하려면, 학생부종합전형의 지원자격과 전형요소 반영비율을 확인해야 합니다.
+1. **지원자격**: 
+   - 재직기간이 3년 이상이어야 합니다.
+   - 4대 보험 중 하나 이상 가입되어 있어야 합니다 (창업·자영업자 포함).
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함.
+2. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+당신의 경우, 경영정보학과 정시 성적 3.75를 가지고 최초등록자로 지원하려면, 재직기간이 3년 이상이며, 4대 보험 중 하나 이상 가입되어 있어야 합니다.
+만약 이러한 조건을 충족하고 있다면, 최초등록자로서 가능할 것입니다. 하지만 만약 재직기간이나 보험 가입 여부가 미비하다면, 지원이 불가능할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 대학 입학처에 문의하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 모집요강을 확인해야 한다고 언급하고 있으며, 수능 성적과 학생부 종합 평가를 고려해야 한다고 설명합니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 2.88, 수능 3.88)와 비교할 때, 4.2라는 성적이 평균보다 낮다는 점을 명확히 언급하지 않았습니다. 따라서 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 4.2라는 성적이 평균보다 낮다는 점을 명확히 하지 않아 일관성이 떨어집니다. 또한, 경쟁률과 추가 서류에 대한 언급이 원본 텍스트와는 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 고려하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 않아 완전한 일관성을 유지하지는 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 언급하지만, 원본 텍스트의 평균 등급 정보와 비교할 때 정확성이 떨어집니다. 4.2라는 성적이 평균보다 낮다는 점을 명확히 하지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 적절한 의미를 전달하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 의미의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6295038499069905</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>4.2라는 성적은 경영정보학과의 모집요강을 확인해야 합니다. 일반적으로 경영정보학과의 경우, 수능 점수와 학생부 종합 평가를 함께 고려합니다. 최초등록자로 가능할지는 다음과 같은 요소들을 고려해야 합니다:
+1. **수능 성적**: 4.2라는 성적이 어느 정도인지 확인해야 합니다. 예를 들어, 수능 4개 영역의 평균 점수가 5.0 이상이면 경쟁률이 높을 수 있습니다.
+2. **학생부 종합 평가**: 학생부에서의 활동과 성적도 중요합니다. 전공적합성, 학업역량 등 다양한 요소를 고려해야 합니다.
+3. **모집요강**: 각 대학별로 모집요강이 다르므로 해당 대학의 모집요강을 확인해 보세요. 예를 들어, ICT융합공과대학이나 예술디자인체육대학의 경우 특정 영역에 대한 요구가 있을 수 있습니다.
+4. **경쟁률**: 2024학년도의 경쟁률을 고려해야 합니다. 경영정보학과의 경우 경쟁률이 높아서 최초등록자로 가능할지는 불확실합니다.
+5. **추천서 및 자기소개서 등 추가 서류**: 일부 대학에서는 추천서나 자기소개서 등을 요구하기도 하므로 이에 대한 준비가 필요합니다.
+위의 요소들을 종합적으로 고려하여 결정해야 합니다. 만약 자세한 정보를 얻고 싶다면, 해당 대학의 모집요강을 확인하거나 "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 5.33에 대한 합격 가능성을 판단하기 위해 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급 정보와 비교할 때, 정시 성적이 평균보다 낮다는 점을 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 정시 성적이 평균보다 낮다는 점을 명확히 언급하지 않아 일관성이 떨어집니다. 전형별 기준과 면접 점수에 대한 언급은 유용하지만, 원본의 핵심 정보를 간과하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하기 위해 여러 요소를 고려해야 한다고 설명하고 있으며, 이는 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과의 비교가 부족하여 완전한 관련성을 제공하지는 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 5.33에 대한 합격 가능성을 판단하기 위해 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트의 평균 등급 정보와 비교할 때 정확성이 떨어집니다. 평균 등급보다 낮은 성적이라는 점을 명확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 정보를 간과하여 완전한 적절성을 제공하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5990616969031827</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 정시 성적 5.33은 전형별로 다르게 평가되므로, 동의대학교 경영정보학과 일반학생전형에 합격 가능성을 판단하기 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **전형별 기준**: 각 전형(가군, 나군 등)마다 다른 기준이 적용됩니다.
+2. **면접 평균점수**: 면접 평균점수가 중요합니다. 예를 들어, 가군의 경우 수능 점수와 면접 점수가 합산되어 평가되므로, 정시 성적 5.33만으로는 판단하기 어렵습니다.
+3. **전형별 모집인원**: 각 전형에 대한 모집인원과 지원자 수를 고려해야 합니다.
+따라서, 정확한 답변을 드리기 위해서는 동의대학교 경영정보학과 일반학생전형의 최신 기준 점수와 면접 평균점수 등을 확인하시거나, 입학처에 문의하시는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 분리와 관련된 정보를 제공하지만, 원본 텍스트의 주요 사실인 평균 영어 등급과 수능 등급에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 바이오응용공학부의 분리에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있으며, 지원 가능성에 대한 조언도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 주요 사실을 다루지 않기 때문에 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실을 누락하고 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 사실을 다루지 않아 약간의 부적절함이 있습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6761990739634887</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 대한 정보를 확인해보겠습니다.
+바이오응용공학부는 2023년에는 바이오응용공학부였으나, 2024년에는 바이오의약공학과와 식품공학과로 분리되었습니다. 따라서 2024년에 지원하려면 바이오의약공학과 또는 식품공학과 중 하나를 선택해야 합니다.
+현재 제공된 정보에서, 동의대학교 공과대학의 바이오의약공학과와 식품공학과의 경쟁률 및 합격 점수에 대한 자세한 정보는 없습니다. 하지만 일반적으로 동일한 대학 내에서 다른 분야로 전환할 경우, 평균적인 경쟁률이나 합격 점수가 유사하게 유지될 가능성이 높습니다.
+현재의 성적 3.33은 중간 수준이며, 이는 바이오의약공학과나 식품공학과에 최초등록자로 지원하는 데 도움을 줄 수 있습니다. 하지만 확실한 결정을 내리기 위해서는 해당 학과의 정확한 경쟁률이나 평균 합격 점수를 확인해야 합니다.
+추천되는 조치는 다음과 같습니다:
+1. 해당 대학의 공과대학 웹사이트를 방문하여 바이오의약공학과와 식품공학과에 대한 최신 정보를 확인합니다.
+2. 해당 학과의 평균 경쟁률이나 합격 점수를 찾아보세요.
+3. 필요하다면, 대학 관계자나 입시 전문가에게 상담을 받으세요.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인해 보시거나, 동의대학교 공과대학에 직접 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 입학 가능성을 평가하기 위해 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급과 비교했을 때, 현재 정시 등급이 4.4라는 점이 방사선학과의 평균 등급보다 낮다고 잘못 해석하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 입학 가능성을 논의하면서 여러 요소를 제시하지만, 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 특히, 정시 등급이 4.4라는 점이 방사선학과의 평균 등급보다 낮다고 언급한 부분에서 일관성이 부족합니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 입학 가능성에 대한 여러 요소를 다루고 있어 원본 텍스트와 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 점수를 낮추어 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 입학 가능성을 평가하는 데 필요한 요소를 제시하지만, 원본 텍스트의 평균 등급과 비교했을 때 잘못된 해석이 포함되어 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 입학 가능성에 대한 적절한 의미를 전달하고 있으며, 원본 텍스트의 맥락과 잘 맞아떨어집니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 이해하기 어려운 부분이 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6307978314652678</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 입학 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **정시 등급**: 현재 정시 등급이 4.4로, 이는 좋은 성적입니다.
+2. **전형 및 지원 자격**: 일반학생전형인 경우, 학생부종합 평가 영역과 전형요소 반영비율을 고려해야 합니다.
+2024학년도의 학생부종합 평가 영역은 '공동체역량 ㅣ 학업역량 ㅣ 전공적합성'이며, 전형요소 반영비율은 '학생부교과18%+출결12%+서류(실적)70%'입니다. 방사선학과는 주로 과학 기반의 전공이므로, 학업역량과 전공적합성에 대한 평가가 중요합니다.
+방사선학과를 지원하려면, 다음과 같은 점을 확인해야 합니다:
+- **학생부 교과 성적**: 과학교과와 관련된 과목의 성적이 높아야 합니다.
+- **출결**: 출석률이 높아야 합니다.
+- **실적**: 실기나 실험 능력 등 실적을 반영하는 자료가 필요합니다.
+2024학년도에 방사선학과를 지원하려면, 위의 요소들을 충족시켜야 합니다. 만약 추가 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 경쟁률, 지원 인원, 평균 점수, 표준 편차 등의 정보를 포함하고 있지만, 원본 텍스트에서 제공된 정보와는 일치하지 않거나 추가적인 정보가 잘못 해석되었습니다. 예를 들어, 2.66이라는 점수가 평균보다 낮다고 언급했으나, 원본 텍스트에서는 이 점수가 평균보다 높다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 2.66이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하여 낮다고 주장하고 있습니다. 이러한 모순으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 방사선학과에 대한 경쟁률과 입학 가능성에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 2.66의 의미에 대한 해석이 잘못되어 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 특히, 2.66의 해석이 원본과 다르기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 2.66이 평균보다 낮다고 주장하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이러한 점들이 종합적으로 응답의 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 의미와는 다르게 해석되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5928305357842094</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20이고, 지원 인원이 36명으로 높은 경쟁률을 보여주고 있습니다. 현재 평균 점수인 338.76과 비교해볼 때, 2.66이라는 점수는 상대적으로 낮습니다.
+평균점수와 표준편차를 고려하면, 방사선학과의 경우 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 338.76이고, 표준 편차는 5.40입니다. 이에 따라 2.66은 평균보다 상당히 낮은 수치로, 충원 합격 (후보순위)이 5명이라는 점을 고려하면 경쟁이 매우 치열할 것으로 보입니다.
+따라서, 현재의 점수인 2.66으로는 방사선학과에 입학하기가 어렵다고 판단됩니다. 더 높은 점수를 얻거나 다른 전공을 고려하는 것이 좋을 수 있습니다. 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 학생부종합전형에 대한 언급이 추가되어 있어 원본 텍스트의 정보와 다소 일치하지 않습니다. 원본 텍스트는 농어촌 전형에 대한 구체적인 정보를 제공하지 않으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 학생부종합전형에 대한 언급이 추가되어 있어 일관성이 부족합니다. 원본 텍스트는 농어촌 전형에 대한 정보에 집중하고 있으므로, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 학생부종합전형에 대한 정보가 추가되어 있어 약간의 비관련성이 있습니다. 그러나 전반적으로 주제와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 학생부종합전형에 대한 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 학생부종합전형에 대한 언급이 정확한 정보인지 불확실합니다. 따라서 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 학생부종합전형에 대한 언급이 원본의 맥락과 완전히 일치하지 않아 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡할 수 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.4934266824746693</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 학생부종합전형의 경우 학생부와 성적이 중요한 요소입니다. 하지만 정확한 합격 여부는 모집단위와 해당 전형의 기준 점수 등 다양한 요인에 따라 결정됩니다.
+현재 제공된 정보만으로는 특정 모집단위의 기준 점수를 알 수 없으므로, 정확한 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. 지원하신 모집단위의 학생부종합전형 기준 점수
+2. 경찰행정학전공 농어촌 전형의 최저 성적 기준
+이러한 정보를 확인할 수 있는 방법은 대학 입학처 웹사이트나 전형 안내서를 참조하거나, 직접 대학 입학처에 문의하는 것입니다.
+만약 추가적인 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 대학 입학처와 연락을 취하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과 목록을 포함하지 않고 있습니다. 또한, "정원외의 평가 기준"에 대한 언급은 원문에 없는 내용입니다. 따라서 일부 사실이 누락되거나 왜곡된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 예비 25번의 합격 가능성에 대한 구체적인 학과 정보를 제공하지 않아 일관성이 떨어집니다. 원문에서 제시된 학과 목록이 없기 때문에, 응답의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원문에서 제시된 특정 학과 목록과 관련된 정보가 부족합니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과 목록이 누락되어 있어 정확성이 떨어집니다. 또한, "정원외의 평가 기준"에 대한 언급은 원문에 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원문에서 제공된 특정 정보가 누락되어 있어 완전한 의미 전달에는 한계가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5611741621742958</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자 중에서 선발 인원은 7명이므로, 확률적으로는 낮지만 불가능한 것은 아닙니다. 정시 일반학생 전형과 나군 학생부종합(조기취업형계약학과전형) - 정원외의 평가 기준을 잘 이해하고 준비한다면 좋은 결과를 얻을 수 있습니다.
+서류평가에서는 공동체역량, 학업역량, 전공적합성 등이 중요하며, 면접에서는 지원동기 및 학업계획, 학업역량, 전공적합성에 대한 질문이 주어집니다. 따라서 서류와 면접 준비를 철저히 하여 자신을 잘 표현하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 잘못된 점이 있으며, 경찰행정학과의 평균 성적에 대한 정보도 일부 부정확합니다. 법학과에 대한 정보는 원문에 포함되어 있지 않으므로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보(법학과 관련 내용)를 포함하고 있으며, 경찰행정학과의 성적 추정도 원문과 다르게 제시되고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 경찰행정학과에 대한 정보를 포함하고 있지만, 법학과에 대한 정보는 원문과 관련이 없으므로 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 내용이 원문과 일치하지 않아 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 명확하지만, 법학과에 대한 정보가 포함되어 있어 전체적인 일관성이 떨어집니다. 경찰행정학과에 대한 정보는 잘 연결되어 있으나, 법학과의 정보가 추가되면서 흐름이 깨졌습니다.
+6. Accuracy Score (1-5): 2
+   - 경찰행정학과의 성적에 대한 정보는 일부 정확하지만, 법학과에 대한 정보는 원문에 포함되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 원문과의 일치성이 부족하고, 사실적 정확성도 떨어지며, 일관성 또한 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 경찰행정학과에 대한 정보는 적절하지만, 법학과에 대한 정보는 원문과 관련이 없으므로 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 법학과에 대한 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7081489040787284</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 법학과와 경찰행정학과의 지원 자료를 바탕으로 추론해보겠습니다.
+1. **법학과**:
+   - 모집인원: 7명
+   - 지원인원: 40명
+   - 경쟁률: 5.71
+   - 충원 합격 (후보순위): 13명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 315.78
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 6.84
+   **추론**: 경쟁률이 높고, 충원 합격자수가 많기 때문에 안정권을 위해서는 평균 이상의 점수를 받는 것이 좋습니다. 대략적으로 315점에서 320점 사이가 안정권으로 추정할 수 있습니다.
+2. **경찰행정학과**:
+   - 모집인원: 7명
+   - 지원인원: 29명
+   - 경쟁률: 4.14
+   - 충원 합격 (후보순위): 7명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 332.86
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 4.97
+   **추론**: 경쟁률이 낮고, 충원 합격자수가 적기 때문에 문을 닫고 들어갈 수 있는 점수는 평균 이상으로 추정할 수 있습니다. 대략적으로 330점에서 335점 사이가 안정권으로 추정할 수 있습니다.
+따라서, 법학과에서는 315~320점, 경찰행정학과에서는 330~335점 정도를 받으면 안정적인 입학이 가능할 것으로 예상됩니다. 하지만 이는 단순 추론이며 실제 점수와 입학 결과는 여러 요인에 따라 달라질 수 있으므로, 최종적으로는 동의대학교 입학처 웹사이트에서 확인하는 것이 가장 정확합니다. "https://ipsi. deu. ac. kr/main. do"를 방문하여 자세한 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 5.33이라는 점수가 영어영역 등급에 해당한다고 언급하고 있지만, 원문에서는 아동학과의 평균 등급이 6.33임을 명시하고 있어 합격 가능성이 높다고 설명하고 있습니다. 그러나 생성된 응답은 이와 상반된 내용을 제시하고 있어 사실관계에서 일부 부정확한 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 아동학과의 평균 등급과 합격 가능성에 대한 정보와 일치하지 않습니다. 원문은 5.33의 점수로 합격 가능성이 높다고 하지만, 생성된 응답은 확실하지 않다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 동의대학교의 전형 방법에 대한 정보도 포함되어 있어 관련성이 높습니다. 그러나 원문에서 강조한 아동학과의 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복되어 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 반복적인 내용이 있어 일관된 주제를 유지하는 데 어려움이 있습니다. 따라서 전체적인 일관성은 다소 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 상충하는 내용을 포함하고 있어 정확성에서 부족함이 있습니다. 특히, 합격 가능성에 대한 해석이 원문과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실관계와 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 전반적으로 적절한 내용을 포함하고 있습니다. 그러나 원문과의 차이로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 반복적인 내용이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.7001080258841942</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 영어영역 등급에 해당합니다. 동의대학교 보육가정상담학과의 경우, 정시모집군은 &lt;나&gt;군이며, 학교에서 제공한 정보를 바탕으로 보면, 학생부종합전형이나 실기/실적전형에서는 특정 점수 기준이 있지만, 수능 영어 등급에 대한 명확한 기준점은 주요 전형방법 중에서 보아지지 않았습니다.
+따라서, 정시모집군 &lt;나&gt;군의 경우, 학생부종합전형이나 실기/실적전형에서는 특정 점수 기준이 있지만, 수능 영어 등급에 대한 명확한 기준점은 주요 전형방법 중에서 보아지지 않았습니다. 따라서 5.33의 등급으로는 합격할 수 있을지는 확실하지 않습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격 가능성에 대한 정보를 제공하지만, 서류 평가와 실기고사 성적 등 여러 요인에 따라 결정된다는 내용은 원본 텍스트에 명시되어 있지 않습니다. 원본 텍스트는 예비 번호에 따른 합격 가능성에 대한 정보만을 제공하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 추가적인 정보(서류 평가, 실기고사 성적 등)가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트는 충원 합격 가능성에 대한 정보에 집중하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 번호와 충원 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 서류 평가와 실기고사에 대한 내용은 원본 텍스트와 직접적인 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 추가적인 정보가 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 핵심 정보가 왜곡될 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서 적합합니다. 그러나 원본 텍스트의 맥락과는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6313533231379688</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 보육가정상담 충원 합격 3차에서는 예비 12번을 받은 경우에도 합격 가능성은 있습니다. 하지만 확실한 것은 아닙니다. 합격 여부는 서류 평가, 실기고사 성적 등 여러 요인에 따라 결정됩니다.
+서류 평가에서 공동체역량, 학업역량, 전공적합성 등의 영역을 평가받습니다. 특히, 지원전공과 관련된 활동이나 경험, 학업의지 등을 잘 보여줄 수 있는 서류를 준비하는 것이 중요합니다.
+실기고사는 각 전형별로 다르므로, 해당 전형에 대한 실기고사 내용을 정확히 파악하고 준비해야 합니다. 예비 12번을 받았다면, 합격 가능성은 있으나 최종 결과는 발표일까지 기다려야 합니다.
+추가적으로, 입학안내 홈페이지를 통해 공지사항을 확인하거나, 입학관리팀에 문의하여 자세한 정보를 얻는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어렵다고 명시하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 했으나, 생성된 응답에서는 가능하다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 언급하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용을 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히 유아교육학과에 대한 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7640013313607139</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시 모집군에서 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 매우 높기 때문에 어려울 수 있습니다.
+유아교육학과의 경우, 학생부종합전형에서는 학업역량과 전공적합성 등을 평가하기 때문에 성적이 높은 것이 유리합니다. 하지만 이 외에도 면접 등 다양한 요소들이 고려되기 때문에 단순히 성적만으로 판단할 수 없습니다.
+정확한 지원 가능성을 확인하려면, 해당 대학의 정시 모집군과 전형요소 반영비율을 확인하시고, 유아교육학과의 경쟁률과 입학사정관들의 평균 점수를 참고하시기 바랍니다. 필요하다면, 학교 관계자와 상담을 받아보는 것도 좋습니다.
+더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 반영하고 있습니다. 그러나 "확실한 것은 아닙니다"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 보육가정상담학과의 합격 가능성에 대한 논의를 잘 이어가고 있습니다. 다만, "아동학과로 변경되었다"는 부분이 원본 텍스트에 명시되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점이 자연스럽게 이어집니다. 그러나 몇 가지 문장이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 합격 가능성에 대한 정보도 정확합니다. 그러나 "확실한 것은 아닙니다"라는 표현이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부분에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.7078124772243478</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육가정상담학과(아동학과)로 지원하는 경우, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 동의대학교의 정시 모집에서 보육가정상담학과는 아동학과로 변경되었고, 일반학생전형의 경우 수능 성적을 기준으로 합니다.
+현재 제공된 정보를 바탕으로 다음과 같은 점들을 고려해야 합니다:
+1. **수능 등급 환산**: 4.16의 등급은 어느 정도의 표준점수가 될까요? 이는 합격 가능성에 큰 영향을 미칩니다.
+2. **동점자 처리 기준**: 동점자 처리 기준이 수능 국어, 수학, 영어 영역의 합계 점수 상위자로 설정되어 있으므로, 등급 환산 점수가 높은 경우 유리합니다.
+현재 제공된 정보만으로는 정확한 예측을 하기 어렵습니다. 따라서, 최종 합격 여부를 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 확실합니다. 또한, 면접 준비와 지원 서류 작성 등도 철저히 해야 합니다.
+추가 정보를 원하시거나 더 자세한 조언이 필요하다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 명확히 반영하지 않고 있으며, 관련 정보가 없다는 언급이 있지만, 이는 원문과 모순됩니다. 또한, 일반적인 학과에 대한 정보가 포함되어 있어 원문과의 일관성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관되지 않으며, 소프트웨어융합학과에 대한 잘못된 정보와 일반적인 학과에 대한 정보를 혼합하고 있습니다. 이는 원문에서 명확히 정시 지원이 불가능하다고 언급한 것과 상충합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변을 제공하려고 하지만, 정시 지원이 불가능하다는 원문의 핵심 내용을 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적인 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 불가능성을 정확히 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 이는 원문과의 사실적 일치가 부족함을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치가 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문의 핵심 메시지를 놓치고 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 분산으로 인해 핵심 메시지가 흐려질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5174585309514219</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 현재 제공된 정보에서는 해당 학과의 관련 내용이 포함되어 있지 않습니다. 따라서 정확한 답변을 드리기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 최신 정보를 확인해 주세요.
+하지만 일반적으로 소프트웨어융합학과와 유사한 학과의 경우, 국어, 수학, 영어 등급이 높은 점수를 받는 것이 중요합니다. 또한 전공적합성이나 실기/실적 위주의 평가에서도 좋은 성적을 받아야 합니다.
+현재 제공된 정보에서는 특정 학과의 평균 등급을 확인할 수 없으므로, 해당 웹사이트에서 최신 정보를 확인해 주세요.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비율을 60%와 40%로 언급하고 있으나, 원본 텍스트에서는 이러한 비율에 대한 언급이 없습니다. 또한, "따로 준비해야 하는 서류는 없습니다"라는 부분은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 준비해야 하는 서류에 대한 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(서류 평가 비율 및 서류 준비 여부)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 내용을 왜곡하거나 추가적인 정보를 제공하고 있어, 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 서류 평가와 면접 평가에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용(서류 평가의 구체적인 요소 및 준비 서류)에 대한 정확한 반영이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있으나, 전체적으로 논리적인 흐름이 부족합니다. 서류 평가와 면접 평가에 대한 설명이 명확하게 연결되지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 서류 평가 비율과 준비 서류에 대한 정보가 잘못되었습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계에서 부정확한 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 특히, 서류 준비에 대한 정보가 부정확하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란스러울 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.563636406703114</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접평가가 각각 60%와 40%의 비율로 반영되며, 특히 세특 내용은 서류평가 영역에서 중요한 요소 중 하나입니다. 따라서 세특 내용을 잘 준비하는 것이 중요합니다.
+세특 내용에 대한 준비는 다음과 같은 점들을 고려해야 합니다:
+1. **실제 활동 경험**: 지원자가 실제로 어떤 활동을 했는지 구체적으로 기재해야 합니다.
+2. **성과 및 결과**: 활동에서 얻은 성과나 결과를 명확히 기재합니다.
+3. **관련성**: 활동이 소프트웨어융합학과와 어떻게 관련되어 있는지를 설명합니다.
+따로 준비해야 하는 서류는 없습니다. 하지만 지원자가 실제로 참여했던 활동을 증명할 수 있는 자료들을 첨부하는 것이 좋습니다 (예: 프로젝트 보고서, 코드 샘플 등).
+면접에서는 세특 내용과 관련된 질문이 나올 가능성이 있으므로, 준비한 내용을 바탕으로 자연스럽게 대답할 수 있도록 연습해보세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 평균 점수인 426.80에 대한 언급은 원본 텍스트에 없으며, 4.08의 성적이 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수에 대한 잘못된 해석이 포함되어 있어 일관성이 떨어집니다. 경쟁률에 대한 정보는 추가되었지만, 원본 텍스트의 내용과 완전히 일치하지는 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 지원하는 것과 관련된 정보를 제공하고 있으며, 질문에 대한 답변을 시도하고 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없거나 추가적인 세부사항을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 평균 점수에 대한 잘못된 정보가 포함되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수에 대한 잘못된 해석이 있어 정확성이 떨어집니다. 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 정보가 부정확하여 의미 전달에 약간의 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7634721335963466</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 성적을 가지고 동의대학교 소프트웨어공학부에 지원한다면, 최초합격 가능성은 어느 정도일까요?
+주요 정보를 바탕으로 분석해보겠습니다:
+1. **소프트웨어공학부**는 2024학년도 모집단위입니다.
+2. **모집 인원**은 5명이며, **지원 인원**이 11명으로 경쟁률이 2.20입니다.
+3. **충원 합격 (후보순위)**는 6명입니다.
+4.08이라는 성적을 가지고 지원한다면, 평균 점수인 426.80보다 낮은 점수가므로 경쟁률이 높은 상황에서의 최초합격 가능성은 매우 낮습니다. 하지만, 특정 학생의 성적이 평균보다 낮더라도 충원 합격을 받는 경우가 있습니다.
+**추천 사항:**
+1. **성적 분석**: 자신의 성적과 동의대학교 소프트웨어공학부의 평균 점수를 비교해보세요.
+2. **경쟁률 확인**: 현재 지원 인원이 11명이고, 충원 합격자는 6명으로 경쟁률이 높습니다.
+3. **추가 정보 수집**: 동의대학교 소프트웨어공학부에 대한 추가 정보를 수집하여 지원 전략을 세우세요.
+만약 더 자세한 정보나 조언이 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 구체적인 정보를 제공하지 않고, 다른 학과에 대한 정보로 혼동하고 있습니다. 이는 사실과 일치하지 않으며, 제공된 정보의 맥락을 잘못 이해한 것으로 보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 다른 학과의 정보를 언급하고 있어 일관성이 부족합니다. 원본 텍스트와의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 직접적으로 답변하지 않고 다른 학과에 대한 정보를 제공하고 있습니다. 그러나 여전히 관련된 웹사이트를 언급하고 있어 어느 정도의 관련성은 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 일관성이 떨어져서 흐름이 매끄럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 소프트웨어융합학과에 대한 질문과 관련된 정보가 부족하여 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않으며, 다른 학과에 대한 정보로 혼동하고 있습니다. 이는 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받고 있어 다차원적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 질문에 대한 직접적인 답변이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6238163729416294</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보가 주어지지 않았습니다. 현재 제공된 정보는 ICT융합공과대학의 영화학과와 예술디자인체육대학의 패션디자인학과에 대한 것입니다. 소프트웨어융합학과에 대한 정시 평균 5등급으로 여기 올 수 있는지 확인하려면, 해당 학과의 정시모집군 변경사항이나 평균 등급 정보를 찾아보아야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하시거나, 대구교육대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과에 대한 정확한 정보를 제공하지 않고, 예술디자인체육대학과 ICT융합공과대학의 모집 상황을 언급하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 신소재공학과에 대한 구체적인 정보가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 신소재공학과의 평균 성적에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과의 정보를 언급하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과에 대한 질문에 대한 답변을 시도하지만, 다른 학과의 정보를 포함하고 있어 주제와의 관련성이 떨어집니다. 그러나 정시 성적에 대한 언급은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히 다른 학과에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 신소재공학과에 대한 구체적인 정보가 부족하고, 다른 학과의 정보를 언급하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다. 관련성은 있지만, 정확성과 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 다른 학과에 대한 언급이 맥락을 벗어납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 내용이 혼란스러울 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.627743618854997</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 대한 자세한 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 데이터는 예술디자인체육대학과 ICT융합공과대학의 모집 상황을 기반으로 한 것이므로, 신소재 공학부에 대한 정확한 경쟁률이나 평균 점수 등의 정보를 직접적으로 알 수 없습니다. 그러나 일반적으로 동의대학교의 경우, 학생부 종합전형과 수능 성적 등이 중요한 요인임을 고려하면, 정시 성적이 4.28이라는 점은 좋은 평가를 받을 가능성이 있습니다.
+신소재 공학부에 지원하려면, 해당 부서의 모집요강과 평균 점수 등을 확인해야 합니다. 특히 경쟁률이 높다면, 더 높은 점수가 요구될 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하는 것이 좋습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 자기소개서를 작성하는 것이 좋다는 추가 정보는 원문과는 다소 다른 맥락을 제공하고 있어, 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 자기소개서를 작성하는 것이 좋다는 내용은 원문과 상충하는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 수능 일반학생전형과 자기소개서의 필요성에 대한 질문에 직접적으로 관련된 내용을 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 자기소개서 작성에 대한 조언이 원문과의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하지만, 자기소개서 작성에 대한 조언은 원문과의 일치성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원문과 관련된 내용을 잘 전달하고 있지만, 자기소개서 작성에 대한 조언은 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6225799157476621</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 주로 학생부와 대학수학능력시험 점수가 중요한 요소가 됩니다. 따라서 자기소개서는 필수적으로 요구되지 않습니다. 하지만 개인의 특성이나 경험을 잘 표현할 수 있는 자기소개서를 작성해두면, 입시 관리자들이 지원자의 전반적인 능력을 더 잘 파악할 수 있습니다. 만약 작성하려고 한다면, 지원자의 학업 성취도, 봉사 활동, 특기 등과 관련된 내용을 포함시키는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 등급 4.5에 대한 추가 모집 지원 가능성을 언급하고 있으며, 경쟁률과 충원 합격자 수를 고려해야 한다고 설명하고 있습니다. 그러나, 동의대학교 공과대학에 대한 구체적인 정보가 없다는 점에서 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 정보와 수능 등급에 대한 논의가 잘 연결되어 있습니다. 다만, 특정 학과에 대한 정보가 부족하다는 점에서 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 등급과 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 추가 모집에 대한 정보가 부족한 점에서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 등급과 추가 모집에 대한 정보를 정확하게 반영하고 있습니다. 그러나 특정 학과에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성이 높습니다. 그러나 일부 정보 부족으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 특정 학과에 대한 정보가 부족하여 의미 전달이 완전하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7270807165840678</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급을 가지고 추가모집에 지원하려는 경우, 해당 모집단위의 경쟁률과 충원 합격자 수를 고려해야 합니다.
+위에서 제공된 정보 중에서 동의대학교 공과대학의 추가모집에 대한 정보를 찾아보겠습니다. 하지만 위의 데이터에는 동의대학교 공과대학의 추가모집에 대한 구체적인 정보가 없습니다. 따라서, 다음과 같은 절차로 판단해볼 수 있습니다:
+1. **경쟁률 확인**: 해당 모집단위의 경쟁률을 확인합니다.
+2. **충원 합격자 수 확인**: 충원 합격자 수를 확인하여 추가모집에 자리가 있는지 확인합니다.
+만약 위 정보에서 동의대학교 공과대학의 추가모집에 대한 정보가 없다면, 해당 대학의 웹사이트나 입학처와 직접 문의하는 것이 가장 정확한 방법입니다. 
+추가로, 수능 등급 4.5는 상당히 낮은 점수이므로, 경쟁률이 높거나 충원 합격자수가 많은 모집단위에서는 어려울 수 있습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 동의대학교 공과대학의 추가모집에 대한 정보를 확인하거나, 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부에 대한 정보가 아닌 다른 학과의 경쟁률과 평균 점수를 포함하고 있어, 원본 텍스트의 핵심 정보와는 관련이 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부에 대한 정보가 아닌 다른 학과의 정보를 제공하고 있어, 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 내용과 상충하는 부분이 많습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부에 대한 질문에 대한 답변이 아닌 다른 학과의 정보로 구성되어 있어, 원본 텍스트와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 흐름이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 정보를 나열하고 있지만, 신소재공학부와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부에 대한 정확한 정보를 제공하지 않으며, 다른 학과의 정보로 대체되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트와의 관련성이 낮고, 일관성 및 사실성에서도 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 주제와의 관련성이 떨어져 전체적인 이해도가 낮아질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6248956478033295</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부의 경쟁률과 평균 점수를 확인해보겠습니다.
+ICT융합공과대학 영화학과의 경우, 모집인원은 5명이고 지원인원이 11명으로 경쟁률이 2.20이며, 충원 합격자는 6명입니다. 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80이고, 표준 편차는 11.23입니다.
+반면에 예술디자인체육대학 패션디자인학과의 경우, 모집인원이 6명이고 지원인원이 22명으로 경쟁률이 3.67이며, 충원 합격자는 4명입니다. 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 312.33이고, 표준 편차는 8.10입니다.
+신소재공학부에 대한 정보는 주요 변경사항에서 확인할 수 있습니다. 하지만 신소재공학부가 분리되거나 통합되는 등의 변경 사항이 없으므로, 현재의 정보를 바탕으로 추정해볼 수 있습니다.
+국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80이고, 표준 편차는 11.23입니다. 이 정보를 바탕으로 경쟁률을 예측할 수 있지만, 정확한 경쟁률과 합격 가능 등급은 해당 대학의 공식 발표를 참고해야 합니다.
+따라서, 신소재공학부에 대한 최종적인 합격 가능성은 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)에서 확인해보시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2023년도 신소재공학부의 평균 점수를 448점으로 언급하고 있지만, 원본 텍스트에서는 작년 신소재공학과의 평균 점수가 378.15점이라고 명시되어 있습니다. 또한, 2024년도 신소재공학과와 고분자나노공학과의 평균 점수에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이러한 정보는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 447점이 신소재공학과의 평균 점수보다 높다고 언급하고 있지만, 생성된 응답에서는 2023년도 평균 점수가 448점이라고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않고, 추가적인 정보와 비교를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 벗어난 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 수식 표현이 포함되어 있어 일반 독자에게는 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져 coherence가 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 평균 점수와 관련된 정보가 잘못된 것으로 보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 제공된 정보가 원본의 맥락과는 다르게 해석될 수 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 수식이 포함되어 있어 일반 독자에게는 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7573159573309483</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2023년도 동의대학교 신소재공학부의 최종 평균 점수가 448점이었고, 2024년도는 신소재공학과와 고분자나노공학과로 분리되었습니다. 이에 따라 2023년도의 평균 점수를 2024년도의 두 학과 평균 점수와 비교해보겠습니다.
+2024년도 신소재공학과의 최종 평균 점수는 427.00점이고, 고분자나노공학과의 최종 평균 점수는 435.18점입니다. 두 학과를 합쳐서 평균을 구하면 다음과 같습니다:
+\[
+\text{평균} = \frac{(427.00 + 435.18)}{2} = \frac{862.18}{2} = 431.09
+\]
+이 값은 2023년도의 평균 점수인 448점보다 낮습니다. 따라서, 작년에 신소재공학과에서 447점 이상을 받았다면, 2024년도에는 두 학과 중 하나에서 충원 합격 가능성은 높아 보입니다.
+하지만, 정확한 결과는 입시 홈페이지를 확인하거나 동의대학교에 직접 문의하는 것이 가장 확실합니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부의 평균 성적과 지원 가능성에 대한 정보를 제공하고 있으며, 대체로 정확한 내용을 담고 있습니다. 그러나 "4.3 등급의 성적이면"이라는 부분은 원문에서 언급된 4.1~4.2 등급과의 비교에 대한 명확한 언급이 부족하여 약간의 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "4.3 등급의 성적이면"이라는 표현이 원문에서의 성적 범위와 일치하지 않아 일관성이 떨어집니다. 원문은 4.1~4.2 등급에 대한 내용을 중심으로 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 신소재공학부의 성적 기준과 지원 가능성에 대한 정보를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 주제가 약간 흐트러질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 성적 범위에 대한 언급이 다소 모호하여 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 다만, 일부 표현에서 약간의 혼동이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.598588306316062</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이면, 정시 성적 산출 결과가 4.1~4.2 정도로 예상되는데, 이는 동의대학교 신소재공학부 일반학생전형에 충분한 점수일 것입니다.
+동의대학교의 신소재공학부 일반학생전형은 수능 영어 영역 등급을 기준으로 합니다. 4.1~4.2등급은 해당 학과에서 요구하는 점수 범위 내에 있으므로, 이 성적만으로는 충분히 지원 가능합니다.
+그러나 일반학생전형의 경우, 수능 영어 외에도 국어, 수학, 사회 등의 성적이 반영되므로, 전체적인 성적 평균이 중요합니다. 따라서 4.3등급의 성적은 좋은 점수지만, 다른 과목들의 성적도 함께 고려해야 합니다.
+추가적으로, 동의대학교는 학생부종합전형과 같은 다른 전형 방식도 운영하고 있으므로, 전체적인 지원 자격을 판단하기 위해서는 수능 성적 외에도 학생부 내용 등을 종합적으로 검토해야 합니다.
+만약에 더 자세한 정보가 필요하다면, 동의대학교의 입학처 웹사이트를 방문하거나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 홈페이지를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하지만, 구체적인 성적 기준에 대한 정보는 원본 텍스트에 명시된 평균 점수와 표준 편차를 반영하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 성적 목표를 설정하는 방식에서 원본의 구체적인 수치를 사용하지 않아 일관성이 떨어집니다. 예를 들어, 국어와 수학의 목표 점수가 원본의 평균 점수와 다릅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 성적 목표와 관련된 조언을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 성적 목표 설정 부분에서 원본의 구체적인 수치를 반영하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 기준을 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 구체적인 성적 기준을 제시하지 않아 일부 의미가 약해질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 성적 목표 설정 부분에서 원본의 구체적인 수치를 사용하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.8036053984180392</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 경우, 수능 일반학생전형을 통해 모집합니다. 이 전형에서는 국어, 수학(미적분), 영어 등의 성적이 반영됩니다.
+성적 산출 예시를 기반으로, 다음과 같은 점수를 목표로 설정해보겠습니다:
+- **국어**: 104 이상
+- **수학(미적분)**: 108 이상
+- **영어**: 4등급 이상 (이 경우 123점 이상)
+이러한 성적이면, 동의대학교 인공지능학과 수능 일반학생전형에 충분히 경쟁력을 갖추실 수 있을 것입니다. 하지만 최종 합격 가능성은 모집인원, 다른 지원자의 성적 등 다양한 요소에 따라 달라질 수 있으므로, 정확한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 논의하고 있지만, 원본 텍스트에서 제공된 구체적인 학과별 성적 평균과 표준 편차에 대한 정보는 포함되어 있지 않다. 따라서, 일부 정보가 누락되어 있어 점수를 낮게 평가했다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 의료경영학과에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 다른 학과들에 대한 정보와 일치하지 않는다. 원본 텍스트의 내용을 완전히 반영하지 않기 때문에 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 다루고 있어 원본 텍스트의 주제와 관련이 있다. 그러나 원본 텍스트에서 제공된 다양한 학과에 대한 정보가 누락되어 있어 완전한 관련성은 부족하다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽다. 그러나 원본 텍스트의 다양한 학과 정보를 포함하지 않아 전체적인 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 의료경영학과에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 데이터와 비교할 때 정확성이 떨어진다. 원본 텍스트의 다른 학과에 대한 정보가 누락되어 있어 정확한 평가가 어렵다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 정보와 비교할 때 부족한 점이 많아 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제에 적합한 의미를 전달하고 있으나, 원본 텍스트의 구체적인 세부사항이 누락되어 있어 완전한 적합성은 부족하다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공하고 있다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 이해도를 저하시킬 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6441904769309473</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성을 판단하기 위해서는 해당 학과의 경쟁률, 충원 합격 점수 등 정보를 고려해야 합니다.
+현재 제공된 데이터 중에서 가장 가까운 분야는 의료경영학과입니다. 이 분야에서는:
+- 모집 인원: 5명
+- 지원 인원: 14명
+- 경쟁률: 2.80
+- 충원 합격 (후보순위): 9명
+이 정보를 바탕으로 추론해볼 수 있습니다. 현재의 경쟁률은 2.80이며, 이는 비교적 낮은 편입니다. 또한, 충원 합격 인원이 9명이라는 점을 고려하면, 평균적인 지원자의 성적이 상대적으로 낮은 편일 수 있습니다.
+5.27의 성적을 가지고 추합 가능성을 판단할 때, 이는 평균보다 약간 높은 성적입니다. 따라서, 이 성적으로 의료경영학과에서 충원 합격 가능성은 상당히 높다고 볼 수 있습니다.
+하지만, 정확한 결과를 얻기 위해서는 해당 대학의 최종 충원 합격 점수와 지원자의 성적 분포 등을 확인해야 합니다. 따라서, 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 언급하고 있지만, 소스 텍스트에서 제공된 구체적인 평균 등급(영어 3.77, 수능 4개 영역 4.49)에 대한 언급이 부족합니다. 또한, 경쟁률과 모집 인원 수에 대한 정보는 소스 텍스트에 포함되어 있지 않으므로, 일부 정보가 추가되었지만 정확한 사실에 기반하지 않은 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 내용을 바탕으로 합격 가능성을 논의하고 있지만, 경쟁률과 관련된 정보는 소스 텍스트에 명시되어 있지 않으므로 일관성이 떨어집니다. 그러나 정시 성적 4.2가 평균 등급보다 높다는 점은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 4.2와 관련된 합격 가능성에 대한 정보를 제공하고 있어 주제와 관련성이 높습니다. 그러나 소스 텍스트의 구체적인 평균 등급 정보와의 연결이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 경쟁률에 대한 언급이 소스 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 언급하고 있지만, 소스 텍스트의 구체적인 평균 등급 정보와의 연결이 부족하여 정확성이 떨어집니다. 또한, 경쟁률에 대한 정보는 소스 텍스트에 포함되어 있지 않으므로 정확한 정보라고 보기 어렵습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 높지 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 추가 정보가 소스 텍스트와의 연결이 약해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6806236889584421</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 어느 정도일지 알아보겠습니다.
+소프트웨어공학부는 2024학년도 모집단위로 보면, 경쟁률이 높아 보입니다. 예를 들어, ICT융합공과대학의 경우, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80이고, 표준 편차는 11.23입니다. 이와 비교해보면, 정시 성적 4.2인 경우 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합이 상대적으로 높을 것으로 예상됩니다.
+그러나, 경쟁률과 모집 인원 수를 고려하면, 정시 성적 4.2인 경우에도 충분히 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 특히, 이전 년도의 합격 점수와 경쟁률을 참고하여 더 정확한 판단이 가능할 것입니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에 합격 가능성은 있으나, 확실하지 않은 상황입니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나, 직접 문의하는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 현재 성적에 대한 정보를 포함하고 있으며, 합격 가능성에 대한 언급도 있습니다. 그러나 "확정적인 답변을 드리기 어렵다"는 부분은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 성적에 대한 해석도 일관성을 유지하고 있습니다. 다만, 합격 가능성에 대한 언급이 다소 약해 보일 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 약간의 중복이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적에 대한 해석도 적절합니다. 그러나 합격 기준에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성이 높습니다. 그러나 약간의 모호함이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 애매할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7194061278331191</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부의 정시 일반학생전형에 대한 확정적인 답변을 드리기 어렵습니다. 성적 산출 예시에서 국어, 수학(미적분), 영어 등급과 과탐 점수를 기준으로 산출된 결과가 3.92이라는 점은 확인했습니다.
+화학환경공학부의 정시 일반학생전형에 대한 최소 합격 기준 점수는 공개되지 않았습니다. 따라서 현재의 성적만으로는 해당 전형에 합격할 수 있는지 판단하기 어렵습니다. 
+추가적으로, 동의대학교 화학환경공학부의 정시 일반학생전형에 대한 최신 정보와 최소 합격 기준 점수를 확인하려면 공식 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.
+현재 제공된 정보로는 정확한 답변을 드릴 수 없으니, 추가적인 자료 확인이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.25라는 점수가 상대적으로 높은 점수라고 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 점수와 비교하여 합격 가능성을 판단하는 정보가 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 동의대학교 화학환경공학부의 최저등급이나 경쟁률에 대한 정보가 부족하다는 점에서 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 확실한 답변을 드리기 어렵다고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 등급과 합격 가능성에 대한 논의가 포함되어 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.25라는 점수가 높은 점수라고 언급하지만, 원본 텍스트에서 제공된 평균 점수와 비교하여 정확한 판단을 내리지 못하고 있습니다. 따라서 정확성에서 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 제공합니다. 그러나 구체적인 데이터에 대한 언급이 부족하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6180875877868753</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 수능 등급은 평균적인 경쟁률을 고려하면 상대적으로 높은 점수입니다. 하지만 동의대학교 화학환경공학부에 대한 정확한 최저등급이나 경쟁률 등의 정보가 제공되지 않았기 때문에, 확실한 답변을 드리기는 어렵습니다.
+동의대학교 화학환경공학부의 경우, 일반적으로 고른 성적과 전공적합성 등을 종합적으로 평가하기 때문에 높은 등급이 필요할 수 있습니다. 하지만 특정 학과의 최저등급이나 경쟁률을 확인하여 더 정확한 판단을 내리실 것을 권장드립니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do" 링크에서 공식 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 주어진 데이터에 기반하여 합격 가능성을 분석하고 있으며, 평균 점수와 비교하여 긍정적인 요소를 언급하고 있습니다. 그러나 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 다소 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 충원 합격자 수에 대한 추가 정보를 제공하여 일관성이 떨어질 수 있습니다. 원본 텍스트에 명시된 정보와는 다소 다른 방향으로 해석하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 분석을 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 경쟁률과 충원 합격자 수에 대한 언급이 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 충원 합격자 수에 대한 정보는 원본에 포함되어 있지 않으므로 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 정확성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6261849152606356</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 주어진 데이터를 바탕으로 분석하면, 영화학과의 경쟁률이 2.20이고, 충원 합격자는 6명이라는 것을 고려할 때, 좋은 성적입니다. 평균점수인 286.77보다 높은 점수를 받았으므로, 이는 합격 가능성에 긍정적인 요소가 될 것입니다.
+하지만 정확한 합격 여부는 수능 점수뿐만 아니라 지원자의 전체 평가와 경쟁률 등 다양한 요인을 고려해야 합니다. 따라서 최종 합격 여부를 확인하려면, 해당 대학의 입학처 웹사이트나 직접 문의하는 것이 가장 정확할 것입니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크에서 공식 입시 안내를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8998705764244587</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 면접관들은 지원자의 지원동기와 학업계획, 학업역량과 전공적합성 등을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
